--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2104499.732199423</v>
+        <v>2101956.615230825</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -674,10 +674,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>239.807948141505</v>
+        <v>185.2449961814011</v>
       </c>
       <c r="W2" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>191.4298910353893</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,19 +738,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.178660431575823</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>195.2645777562323</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.695841881769</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>12.82264877890588</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>217.6858695213706</v>
       </c>
       <c r="W4" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>290.2905114143442</v>
+        <v>290.2905114143449</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>12.74220307430065</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>290.2905114143449</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>150.6718910157315</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>290.2905114143442</v>
+        <v>85.39774262201135</v>
       </c>
       <c r="W5" t="n">
-        <v>290.2905114143442</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>236.0696336377421</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>290.2905114143449</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>95.41232349638378</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>64.07498175579303</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>146.2358974242411</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>92.62175729193801</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>125.6496154441978</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>87.1312198814462</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>281.1467950393366</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>199.6452357812556</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>18.56489249210128</v>
+        <v>21.21812042899091</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754696</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>36.22494343870343</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272864</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189236</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>73.23997380652492</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.45282559760447</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>59.96838802184729</v>
       </c>
       <c r="F22" t="n">
-        <v>98.84732537601442</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>48.47457675531716</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>55.52079624060473</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>129.5380597272483</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183167</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358384</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3475,16 +3475,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>120.458979059676</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365897</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695611</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="39">
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611595375</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3904,7 +3904,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>75.00788511617992</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057049</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609172</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39.17751432369236</v>
+        <v>401.1007355715659</v>
       </c>
       <c r="C2" t="n">
-        <v>39.17751432369236</v>
+        <v>401.1007355715659</v>
       </c>
       <c r="D2" t="n">
-        <v>39.17751432369236</v>
+        <v>401.1007355715659</v>
       </c>
       <c r="E2" t="n">
-        <v>39.17751432369236</v>
+        <v>401.1007355715659</v>
       </c>
       <c r="F2" t="n">
-        <v>32.23201357448889</v>
+        <v>394.1552348223624</v>
       </c>
       <c r="G2" t="n">
-        <v>19.1846358513204</v>
+        <v>381.107857099194</v>
       </c>
       <c r="H2" t="n">
-        <v>19.1846358513204</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470371</v>
+        <v>40.41888584470354</v>
       </c>
       <c r="K2" t="n">
-        <v>122.982040419296</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605494</v>
+        <v>262.3106962605485</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859569</v>
+        <v>449.0101090859558</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779391</v>
+        <v>643.3443219779379</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948986</v>
+        <v>813.5133472948969</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444251</v>
+        <v>924.2476725444229</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660178</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660178</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660201</v>
+        <v>803.0167550628458</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660201</v>
+        <v>588.2168933305569</v>
       </c>
       <c r="U2" t="n">
-        <v>959.2317925660201</v>
+        <v>588.2168933305569</v>
       </c>
       <c r="V2" t="n">
-        <v>717.0015419180352</v>
+        <v>401.1007355715659</v>
       </c>
       <c r="W2" t="n">
-        <v>474.7712912700503</v>
+        <v>401.1007355715659</v>
       </c>
       <c r="X2" t="n">
-        <v>281.4077649716772</v>
+        <v>401.1007355715659</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.17751432369236</v>
+        <v>401.1007355715659</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>785.7854854130472</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="C3" t="n">
-        <v>611.3324561319203</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D3" t="n">
-        <v>462.398046470669</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E3" t="n">
-        <v>303.1605914652135</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F3" t="n">
-        <v>156.6260334920985</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J3" t="n">
-        <v>19.1846358513204</v>
+        <v>85.30141548166232</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467741</v>
+        <v>152.9092351450192</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0220535303713</v>
+        <v>290.1388331607129</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849761</v>
+        <v>469.6361695153175</v>
       </c>
       <c r="N3" t="n">
-        <v>602.1761315376407</v>
+        <v>668.292911167982</v>
       </c>
       <c r="O3" t="n">
-        <v>761.6884442064013</v>
+        <v>827.8052238367424</v>
       </c>
       <c r="P3" t="n">
-        <v>870.3780717337002</v>
+        <v>936.494851364041</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660178</v>
       </c>
       <c r="R3" t="n">
-        <v>954.0008224331152</v>
+        <v>959.2317925660178</v>
       </c>
       <c r="S3" t="n">
-        <v>954.0008224331152</v>
+        <v>809.7650034286526</v>
       </c>
       <c r="T3" t="n">
-        <v>954.0008224331152</v>
+        <v>612.7757075887401</v>
       </c>
       <c r="U3" t="n">
-        <v>954.0008224331152</v>
+        <v>384.6369200999059</v>
       </c>
       <c r="V3" t="n">
-        <v>954.0008224331152</v>
+        <v>384.6369200999059</v>
       </c>
       <c r="W3" t="n">
-        <v>954.0008224331152</v>
+        <v>187.3999728713884</v>
       </c>
       <c r="X3" t="n">
-        <v>954.0008224331152</v>
+        <v>187.3999728713884</v>
       </c>
       <c r="Y3" t="n">
-        <v>954.0008224331152</v>
+        <v>187.3999728713884</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>478.4201747466568</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="C4" t="n">
-        <v>309.4839918187499</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="D4" t="n">
-        <v>309.4839918187499</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="E4" t="n">
-        <v>161.5708982363568</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="F4" t="n">
-        <v>161.5708982363568</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="G4" t="n">
-        <v>161.5708982363568</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="H4" t="n">
-        <v>161.5708982363568</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J4" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469302</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477485</v>
+        <v>245.1780356031016</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669864</v>
+        <v>450.4476363223394</v>
       </c>
       <c r="N4" t="n">
-        <v>716.1585259030907</v>
+        <v>656.2710011584436</v>
       </c>
       <c r="O4" t="n">
-        <v>833.7842159674044</v>
+        <v>830.3658965470424</v>
       </c>
       <c r="P4" t="n">
-        <v>959.2317925660201</v>
+        <v>955.813473145658</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660178</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660201</v>
+        <v>828.7538312854205</v>
       </c>
       <c r="S4" t="n">
-        <v>946.2796220822768</v>
+        <v>621.3135465378258</v>
       </c>
       <c r="T4" t="n">
-        <v>720.6504253946417</v>
+        <v>621.3135465378258</v>
       </c>
       <c r="U4" t="n">
-        <v>720.6504253946417</v>
+        <v>621.3135465378258</v>
       </c>
       <c r="V4" t="n">
-        <v>720.6504253946417</v>
+        <v>401.4288298495727</v>
       </c>
       <c r="W4" t="n">
-        <v>478.4201747466568</v>
+        <v>401.4288298495727</v>
       </c>
       <c r="X4" t="n">
-        <v>478.4201747466568</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="Y4" t="n">
-        <v>478.4201747466568</v>
+        <v>173.4392789515553</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>336.2623926609822</v>
+        <v>629.4851314633515</v>
       </c>
       <c r="C5" t="n">
-        <v>336.2623926609822</v>
+        <v>629.4851314633515</v>
       </c>
       <c r="D5" t="n">
-        <v>43.0396538586143</v>
+        <v>336.262392660983</v>
       </c>
       <c r="E5" t="n">
-        <v>43.0396538586143</v>
+        <v>336.262392660983</v>
       </c>
       <c r="F5" t="n">
-        <v>36.09415310941083</v>
+        <v>329.3168919117795</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314754</v>
+        <v>316.4459797155162</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314754</v>
+        <v>23.22324091314759</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314754</v>
+        <v>23.22324091314759</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951856</v>
+        <v>59.13673382951907</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444932</v>
+        <v>163.700268344494</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084602</v>
+        <v>330.322340908461</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162812</v>
+        <v>547.3909387162823</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417536978</v>
+        <v>772.5857417536997</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416831</v>
+        <v>971.8955472416852</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171403</v>
+        <v>1107.500854171406</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657377</v>
+        <v>1161.16204565738</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657377</v>
+        <v>1161.16204565738</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657377</v>
+        <v>1008.96821634856</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.162045657377</v>
+        <v>1008.96821634856</v>
       </c>
       <c r="U5" t="n">
-        <v>1161.162045657377</v>
+        <v>1008.96821634856</v>
       </c>
       <c r="V5" t="n">
-        <v>867.9393068550089</v>
+        <v>922.7078702657202</v>
       </c>
       <c r="W5" t="n">
-        <v>574.7165680526409</v>
+        <v>922.7078702657202</v>
       </c>
       <c r="X5" t="n">
-        <v>336.2623926609822</v>
+        <v>922.7078702657202</v>
       </c>
       <c r="Y5" t="n">
-        <v>336.2623926609822</v>
+        <v>629.4851314633515</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87.94544470687788</v>
+        <v>119.5993252529292</v>
       </c>
       <c r="C6" t="n">
-        <v>87.94544470687788</v>
+        <v>119.5993252529292</v>
       </c>
       <c r="D6" t="n">
-        <v>87.94544470687788</v>
+        <v>119.5993252529292</v>
       </c>
       <c r="E6" t="n">
-        <v>87.94544470687788</v>
+        <v>23.22324091314759</v>
       </c>
       <c r="F6" t="n">
-        <v>87.94544470687788</v>
+        <v>23.22324091314759</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314754</v>
+        <v>23.22324091314759</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314754</v>
+        <v>23.22324091314759</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314754</v>
+        <v>23.22324091314759</v>
       </c>
       <c r="J6" t="n">
-        <v>25.79522430508864</v>
+        <v>25.79522430508878</v>
       </c>
       <c r="K6" t="n">
-        <v>108.3459783063279</v>
+        <v>108.3459783063282</v>
       </c>
       <c r="L6" t="n">
-        <v>265.6681956119385</v>
+        <v>265.668195611939</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6126709702497</v>
+        <v>468.6126709702505</v>
       </c>
       <c r="N6" t="n">
-        <v>691.3371276269093</v>
+        <v>691.3371276269104</v>
       </c>
       <c r="O6" t="n">
-        <v>872.8666975145388</v>
+        <v>978.7247339271119</v>
       </c>
       <c r="P6" t="n">
-        <v>1126.612649313218</v>
+        <v>1126.61264931322</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657377</v>
+        <v>1161.16204565738</v>
       </c>
       <c r="R6" t="n">
-        <v>1161.162045657377</v>
+        <v>1161.16204565738</v>
       </c>
       <c r="S6" t="n">
-        <v>1161.162045657377</v>
+        <v>1013.449017956126</v>
       </c>
       <c r="T6" t="n">
-        <v>1161.162045657377</v>
+        <v>816.8402904184063</v>
       </c>
       <c r="U6" t="n">
-        <v>1161.162045657377</v>
+        <v>816.8402904184063</v>
       </c>
       <c r="V6" t="n">
-        <v>926.0099374256342</v>
+        <v>581.6881821866637</v>
       </c>
       <c r="W6" t="n">
-        <v>671.7725806974327</v>
+        <v>327.450825458462</v>
       </c>
       <c r="X6" t="n">
-        <v>463.9210804918998</v>
+        <v>119.5993252529292</v>
       </c>
       <c r="Y6" t="n">
-        <v>256.1607817269459</v>
+        <v>119.5993252529292</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>489.1660107513005</v>
+        <v>266.8972109234005</v>
       </c>
       <c r="C7" t="n">
-        <v>320.2298278233936</v>
+        <v>266.8972109234005</v>
       </c>
       <c r="D7" t="n">
-        <v>170.1131884110579</v>
+        <v>116.7805715110648</v>
       </c>
       <c r="E7" t="n">
-        <v>170.1131884110579</v>
+        <v>116.7805715110648</v>
       </c>
       <c r="F7" t="n">
-        <v>23.22324091314754</v>
+        <v>23.22324091314759</v>
       </c>
       <c r="G7" t="n">
-        <v>23.22324091314754</v>
+        <v>23.22324091314759</v>
       </c>
       <c r="H7" t="n">
-        <v>23.22324091314754</v>
+        <v>23.22324091314759</v>
       </c>
       <c r="I7" t="n">
-        <v>23.22324091314754</v>
+        <v>23.22324091314759</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314754</v>
+        <v>23.22324091314759</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279141</v>
+        <v>133.2846894279143</v>
       </c>
       <c r="L7" t="n">
-        <v>329.651885299303</v>
+        <v>329.6518852993032</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276975</v>
+        <v>547.0826837276978</v>
       </c>
       <c r="N7" t="n">
-        <v>764.778080173048</v>
+        <v>764.7780801730485</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967838</v>
+        <v>949.8387182967844</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195905</v>
+        <v>1084.669382195906</v>
       </c>
       <c r="Q7" t="n">
         <v>1094.584064899861</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899861</v>
+        <v>967.6652614208738</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899861</v>
+        <v>967.6652614208738</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899861</v>
+        <v>742.3742782728175</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.584064899861</v>
+        <v>742.3742782728175</v>
       </c>
       <c r="V7" t="n">
-        <v>1006.572731686279</v>
+        <v>487.6897900669306</v>
       </c>
       <c r="W7" t="n">
-        <v>717.1555616493179</v>
+        <v>487.6897900669306</v>
       </c>
       <c r="X7" t="n">
-        <v>489.1660107513005</v>
+        <v>487.6897900669306</v>
       </c>
       <c r="Y7" t="n">
-        <v>489.1660107513005</v>
+        <v>266.8972109234005</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1081.071510755571</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="C8" t="n">
-        <v>712.1089938151597</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>353.8432952084092</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795505</v>
+        <v>1674.463969937836</v>
       </c>
       <c r="Y8" t="n">
-        <v>1467.671350819693</v>
+        <v>1284.324637962024</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4884,25 +4884,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781439</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1852.283970943244</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>2184.354406119406</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2431.537139951703</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2546.853055059249</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.18296949591</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
         <v>51.24678656800311</v>
@@ -4960,16 +4960,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1394.715222610545</v>
+        <v>1092.823040066908</v>
       </c>
       <c r="V10" t="n">
-        <v>1140.030734404658</v>
+        <v>838.1385518610207</v>
       </c>
       <c r="W10" t="n">
-        <v>850.6135643676972</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="X10" t="n">
-        <v>622.6240134696799</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.8314343261497</v>
+        <v>548.7213818240601</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,13 +5033,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5048,40 +5048,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2354.274259167293</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703132</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>695.5020655703132</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>545.3854261579775</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>397.4723325755843</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2410.372231621975</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2190.770766644916</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U13" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5309,7 +5309,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>580.8993044876706</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597637</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>261.846482147428</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>113.9333885650349</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T16" t="n">
-        <v>2123.082773965825</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U16" t="n">
-        <v>2123.082773965825</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V16" t="n">
-        <v>1868.398285759938</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>983.3403484614405</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>762.5477693179104</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5543,16 +5543,16 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>295.5818533952732</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,25 +5738,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5777,13 +5777,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516144</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703132</v>
       </c>
       <c r="C22" t="n">
-        <v>882.6868130458045</v>
+        <v>695.5020655703132</v>
       </c>
       <c r="D22" t="n">
-        <v>732.5701736334687</v>
+        <v>545.3854261579775</v>
       </c>
       <c r="E22" t="n">
-        <v>584.6570800510756</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429802</v>
@@ -5902,58 +5902,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782971</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038358</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327652</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048583</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925226</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101294</v>
+        <v>451.6888124356586</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122191</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>149.8982754122191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630049</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,19 +6458,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6479,7 +6479,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6494,7 +6494,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>697.5276345711973</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2075.386809063652</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1786.31158240785</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1786.31158240785</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7169,28 +7169,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7199,22 +7199,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,13 +7248,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L39" t="n">
         <v>119.2902967703784</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782948</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038335</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7640,28 +7640,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
@@ -7670,7 +7670,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400717</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>513.8536007400717</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7843,13 +7843,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928398</v>
+        <v>73.01783107116277</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.78462588923533</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>101.9822523045375</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8149,13 +8149,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>106.0020650282207</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.89011047839804</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506844</v>
+        <v>54.74236624506833</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>106.9273095076481</v>
       </c>
       <c r="P6" t="n">
-        <v>128.6722568460133</v>
+        <v>21.74494733836642</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.5240487471574</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>36.58048154589973</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.36248435538428</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>144.8013425629412</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.5054897610389</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>144.1654765207633</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532677</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>86.46557462472188</v>
       </c>
       <c r="F22" t="n">
-        <v>46.57372264691682</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>96.94647126761409</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>84.77391660561912</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>37.70876137137955</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604372</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685109</v>
       </c>
     </row>
     <row r="35">
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.1260136526042</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25363,13 +25363,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>96.94647126761225</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404994</v>
       </c>
     </row>
     <row r="41">
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,19 +25840,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>211.5151132204111</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333223</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>116.6691671648107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>858384.0007894962</v>
+        <v>858384.0007894961</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825029</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839524.1439825026</v>
+        <v>839524.1439825027</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839524.1439825029</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839524.1439825027</v>
+        <v>839524.1439825026</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516052</v>
@@ -26323,34 +26323,34 @@
         <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752539</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752537</v>
+      </c>
+      <c r="I2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="H2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752541</v>
-      </c>
       <c r="J2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="K2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="L2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752542</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752543</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800895</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210687</v>
+        <v>55881.32342210798</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276264</v>
+        <v>363279.8866276257</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353593</v>
+        <v>62744.31078353582</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440415</v>
+        <v>12992.5963444044</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666303</v>
+        <v>88656.33991666295</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060263</v>
+        <v>261062.8075060265</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431045</v>
+        <v>246054.6603431043</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26436,13 +26436,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683041</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26451,13 +26451,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437332</v>
+        <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302685</v>
+        <v>65162.4012330269</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-379199.6710688837</v>
+        <v>-379199.6710688835</v>
       </c>
       <c r="C6" t="n">
-        <v>228156.8981533671</v>
+        <v>228156.8981533661</v>
       </c>
       <c r="D6" t="n">
-        <v>-4913.46989868478</v>
+        <v>-4913.469898684038</v>
       </c>
       <c r="E6" t="n">
-        <v>-36423.55082002902</v>
+        <v>-36458.2887454649</v>
       </c>
       <c r="F6" t="n">
-        <v>471061.8908045169</v>
+        <v>471027.1528790809</v>
       </c>
       <c r="G6" t="n">
-        <v>471061.8908045168</v>
+        <v>471027.1528790806</v>
       </c>
       <c r="H6" t="n">
-        <v>471061.890804517</v>
+        <v>471027.1528790804</v>
       </c>
       <c r="I6" t="n">
-        <v>471061.8908045166</v>
+        <v>471027.1528790812</v>
       </c>
       <c r="J6" t="n">
-        <v>408317.5800209808</v>
+        <v>408282.8420955451</v>
       </c>
       <c r="K6" t="n">
-        <v>458069.2944601125</v>
+        <v>458034.5565346767</v>
       </c>
       <c r="L6" t="n">
-        <v>382405.550887854</v>
+        <v>382370.8129624181</v>
       </c>
       <c r="M6" t="n">
-        <v>338454.5970755901</v>
+        <v>338419.8591501544</v>
       </c>
       <c r="N6" t="n">
-        <v>471061.8908045168</v>
+        <v>471027.152879081</v>
       </c>
       <c r="O6" t="n">
-        <v>471061.8908045167</v>
+        <v>471027.1528790811</v>
       </c>
       <c r="P6" t="n">
-        <v>471061.8908045168</v>
+        <v>471027.1528790811</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575561</v>
+        <v>636.9329421575566</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143442</v>
+        <v>290.2905114143449</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26808,10 +26808,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.672635203410889e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949116</v>
+        <v>43.45684181949196</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599832</v>
+        <v>297.1319499599826</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327283924</v>
+        <v>50.48256327284045</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856946</v>
+        <v>350.2943206856939</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327283947</v>
+        <v>50.48256327284045</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856942</v>
+        <v>350.2943206856937</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996097</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327283924</v>
+        <v>50.48256327284045</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856946</v>
+        <v>350.2943206856939</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>75.2329359337111</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>87.94431032862988</v>
+        <v>142.5072622887338</v>
       </c>
       <c r="W2" t="n">
-        <v>109.433020575908</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>178.3012096430798</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.4299905145486</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15.72212017025929</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>56.43040540468726</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>192.5432331212128</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>34.45177380245741</v>
       </c>
       <c r="W4" t="n">
-        <v>46.71505019508598</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>64.39253020633873</v>
+        <v>64.39253020633805</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.2517287735719</v>
+        <v>22.96121735922696</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401378</v>
+        <v>111.7608855401377</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157315</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>211.8871100493788</v>
@@ -27673,16 +27673,16 @@
         <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
-        <v>37.46174705579068</v>
+        <v>242.3545158481236</v>
       </c>
       <c r="W5" t="n">
-        <v>58.95045730306879</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>133.661467040727</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>95.94742724170868</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>62.23275695901717</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>71.89852870164475</v>
+        <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.0040636833744</v>
+        <v>99.00406368337438</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370927</v>
+        <v>42.22754232370923</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790382</v>
+        <v>15.09724236790375</v>
       </c>
       <c r="S6" t="n">
-        <v>146.2358974242411</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.6426402623424</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8512500608582</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>52.79929073099323</v>
       </c>
       <c r="G7" t="n">
         <v>166.8424117578468</v>
@@ -27792,10 +27792,10 @@
         <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197633</v>
+        <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340535</v>
+        <v>12.15545075340529</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441978</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
-        <v>223.0380733165757</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>165.0064234423818</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>100.7835750329252</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>170.0858648972134</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>267.6622616290994</v>
+        <v>265.0090336922097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30204,7 +30204,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-8.300560239149491e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198249</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834394</v>
+        <v>2.560534440834396</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219525</v>
+        <v>26.22307334219527</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026809</v>
+        <v>98.71500403026816</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977684</v>
+        <v>217.3221599977686</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782884</v>
+        <v>325.7095828782886</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719741</v>
+        <v>404.0715387719744</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341627</v>
+        <v>449.607443134163</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141835</v>
+        <v>456.8825616141838</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681364</v>
+        <v>431.4212472681367</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600373</v>
+        <v>368.2080532600375</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976554</v>
+        <v>276.5089135976556</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690637</v>
+        <v>160.8431715690638</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051382</v>
+        <v>58.34817857051387</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475257</v>
+        <v>11.20873951475258</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667515</v>
+        <v>0.2048427552667517</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772857</v>
+        <v>1.370006705772858</v>
       </c>
       <c r="H6" t="n">
         <v>13.23138055312207</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770581</v>
+        <v>47.16909052770585</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888294</v>
+        <v>129.4355896888295</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756108</v>
+        <v>221.226038975611</v>
       </c>
       <c r="L6" t="n">
-        <v>297.465710391602</v>
+        <v>297.4657103916023</v>
       </c>
       <c r="M6" t="n">
-        <v>347.128453475868</v>
+        <v>347.1284534758683</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264238</v>
+        <v>356.315910726424</v>
       </c>
       <c r="O6" t="n">
-        <v>325.959446351141</v>
+        <v>325.9594463511413</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892046</v>
+        <v>261.6111927892047</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316369</v>
+        <v>174.8801542316371</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473932</v>
+        <v>85.06059178473939</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959668</v>
+        <v>25.4472736795967</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479188</v>
+        <v>5.522088432479191</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663533</v>
+        <v>0.0901320201166354</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611986</v>
+        <v>1.148567600611987</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180476</v>
+        <v>10.21181012180477</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749502</v>
+        <v>34.54056020749504</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326743</v>
+        <v>81.20372936326748</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438289</v>
+        <v>133.442672143829</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400766</v>
+        <v>170.7606776400767</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577498</v>
+        <v>180.0431921577499</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645598</v>
+        <v>175.7621674645599</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846834</v>
+        <v>162.3448095846835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321987</v>
+        <v>138.9140305321988</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579097</v>
+        <v>96.17687426579104</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297166</v>
+        <v>51.6437759329717</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157434</v>
+        <v>20.01640082157435</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705759</v>
+        <v>4.907516111705762</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156296</v>
+        <v>0.06264914185156301</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31859,10 +31859,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>340.7767527663067</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,16 +32072,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>512.9101366533177</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,16 +32309,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464759</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,37 +32546,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>244.0266243181827</v>
+        <v>560.1612034965799</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33497,25 +33497,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817577</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33968,7 +33968,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,7 +33977,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>162.5000833330452</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817577</v>
@@ -34211,10 +34211,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,19 +34442,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34469,7 +34469,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705381</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292152</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012658</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802096</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393761</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605651</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130813</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>66.78462588923431</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268384</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>138.615755571408</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>181.310440762227</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067319</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502632</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528271</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.75123316395953</v>
+        <v>22.96660727472408</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>126.2075456122945</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295333</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233377</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>118.8138283477917</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369855</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.2762554710821</v>
+        <v>36.27625547108227</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333078</v>
+        <v>105.619731833308</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019868</v>
+        <v>168.3051238019871</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068899</v>
+        <v>219.2612099068903</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175926</v>
+        <v>227.4694980175929</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464497</v>
+        <v>201.32303584645</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047677</v>
+        <v>136.975057504768</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320592</v>
+        <v>54.20322372320615</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.59796302216273</v>
+        <v>2.597963022162816</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125181</v>
+        <v>83.38460000125198</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117279</v>
+        <v>158.9113306117281</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538497</v>
+        <v>204.99441955385</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430905</v>
+        <v>224.9741986430907</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066966</v>
+        <v>290.2905114143449</v>
       </c>
       <c r="P6" t="n">
-        <v>256.3090422208876</v>
+        <v>149.3817327132409</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.89838014561542</v>
+        <v>34.89838014561553</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179461</v>
+        <v>111.1731803179462</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003927</v>
+        <v>198.3507029003929</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195904</v>
+        <v>219.6270691195905</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437884</v>
+        <v>219.8943398437885</v>
       </c>
       <c r="O7" t="n">
-        <v>186.929937498723</v>
+        <v>186.9299374987231</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970922</v>
+        <v>136.1925897970923</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409659</v>
+        <v>10.01483101409666</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>622.455381029198</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35273,7 +35273,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>15.64270034434984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35507,10 +35507,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.7949786802852</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>370.3138922088733</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010465</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.5609983721169</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>101.8925903961643</v>
+        <v>418.0271695745616</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295477</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790074</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
         <v>479.4543240367771</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394598</v>
+        <v>23.94570355317105</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295248</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
